--- a/exp2/data/data.xlsx
+++ b/exp2/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>n</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>Stdev</t>
+  </si>
+  <si>
+    <t>Expected Linear Graph</t>
+  </si>
+  <si>
+    <t>f=sqrt(K/u_av)/lambda</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Mean squared error</t>
   </si>
 </sst>
 </file>
@@ -72,13 +84,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -161,27 +180,30 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Akzent1" xfId="3" builtinId="30"/>
@@ -196,6 +218,258 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K=3kp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1996719160104981E-2"/>
+                  <c:y val="2.1372849227179937E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>371.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K=3.0kp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10133661417322834"/>
+                  <c:y val="-0.18220472440944882"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>87.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>258.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>430.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>514.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="49779456"/>
+        <c:axId val="49773568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49779456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49773568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49773568"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="520"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49779456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,34 +757,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B6:P25"/>
+  <dimension ref="B7:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="5" max="5" width="11.5703125"/>
-    <col min="6" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:16" ht="15">
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="7" spans="2:16" ht="15">
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -524,9 +793,6 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="4"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16" ht="15">
@@ -558,9 +824,6 @@
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="4"/>
       <c r="P8" s="1" t="s">
         <v>1</v>
       </c>
@@ -596,9 +859,6 @@
       <c r="K9" s="1">
         <v>371.6</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="4"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" ht="15">
@@ -632,17 +892,9 @@
       <c r="K10" s="1">
         <v>514.6</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="4"/>
       <c r="P10" s="1">
         <v>1562</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" ht="15">
-      <c r="L11" s="7"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="2:16" ht="15">
       <c r="B12" s="2" t="s">
@@ -677,24 +929,6 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="2:16" ht="15">
-      <c r="L13" s="7"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" ht="15">
-      <c r="L14" s="7"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="2:16" ht="15">
-      <c r="L15" s="7"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="2:16" ht="15">
       <c r="B16" s="3" t="s">
@@ -711,9 +945,15 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="4"/>
+      <c r="L16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="2:14" ht="15">
       <c r="B17" s="3"/>
@@ -741,8 +981,8 @@
         <v>6</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="2:14" ht="15">
       <c r="B18" s="3"/>
@@ -775,17 +1015,17 @@
         <f t="shared" si="1"/>
         <v>123.86666666666667</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="8">
         <f>AVERAGE(F18:K18)</f>
         <v>124.96111111111111</v>
       </c>
-      <c r="M18" s="6">
-        <f>AVEDEV(F18:K18)</f>
-        <v>0.92592592592592149</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="M18" s="10">
         <f>STDEV(F18:K18)</f>
         <v>1.3568618478228309</v>
+      </c>
+      <c r="N18" s="9">
+        <f>M18/SQRT(COUNT(F18:K18)-1)</f>
+        <v>0.60680706556156494</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="15">
@@ -819,28 +1059,28 @@
         <f t="shared" si="2"/>
         <v>171.53333333333333</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="8">
         <f>AVERAGE(F19:K19)</f>
         <v>172.41444444444446</v>
       </c>
-      <c r="M19" s="6">
-        <f>AVEDEV(F19:K19)</f>
-        <v>0.68185185185186492</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="10">
         <f>STDEV(F19:K19)</f>
         <v>1.0368706480260594</v>
       </c>
+      <c r="N19" s="9">
+        <f>M19/SQRT(COUNT(F19:K19)-1)</f>
+        <v>0.46370265057210541</v>
+      </c>
     </row>
     <row r="20" spans="2:14" ht="15">
-      <c r="L20" s="7"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="4"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="2:14" ht="15">
-      <c r="L21" s="7"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="4"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="2:14" ht="15">
       <c r="B22" s="5" t="s">
@@ -857,9 +1097,9 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="4"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="2:14" ht="15">
       <c r="B23" s="5"/>
@@ -886,9 +1126,9 @@
       <c r="K23" s="5">
         <v>6</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="4"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="2:14" ht="15">
       <c r="B24" s="5"/>
@@ -925,13 +1165,13 @@
         <f>AVERAGE(F24:K24)</f>
         <v>9.41658020757811E-4</v>
       </c>
-      <c r="M24" s="9">
-        <f>AVEDEV(F24:K24)</f>
-        <v>1.3722906549223053E-5</v>
-      </c>
-      <c r="N24" s="10">
+      <c r="M24" s="10">
         <f>STDEV(F24:K24)</f>
         <v>2.0021443027815524E-5</v>
+      </c>
+      <c r="N24" s="9">
+        <f>M24/SQRT(COUNT(F24:K24)-1)</f>
+        <v>8.9538615235669439E-6</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15">
@@ -969,13 +1209,124 @@
         <f>AVERAGE(F25:K25)</f>
         <v>9.8909697310939609E-4</v>
       </c>
-      <c r="M25" s="9">
-        <f>AVEDEV(F25:K25)</f>
-        <v>7.7149553729352321E-6</v>
-      </c>
-      <c r="N25" s="10">
+      <c r="M25" s="10">
         <f>STDEV(F25:K25)</f>
         <v>1.1749766156573172E-5</v>
+      </c>
+      <c r="N25" s="9">
+        <f>M25/SQRT(COUNT(F25:K25)-1)</f>
+        <v>5.2546551691648099E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15">
+      <c r="B29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="2:14" ht="15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>2</v>
+      </c>
+      <c r="H30" s="13">
+        <v>3</v>
+      </c>
+      <c r="I30" s="13">
+        <v>4</v>
+      </c>
+      <c r="J30" s="13">
+        <v>5</v>
+      </c>
+      <c r="K30" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="14">
+        <f>SQRT($D9/$L24)/F$12</f>
+        <v>62.471519109080369</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" ref="G31:K31" si="5">SQRT($D9/$L24)/G$12</f>
+        <v>124.94303821816074</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="5"/>
+        <v>187.41455732724111</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="5"/>
+        <v>249.88607643632147</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="5"/>
+        <v>312.35759554540181</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="5"/>
+        <v>374.82911465448223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="14">
+        <f>SQRT($D10/$L25)/F$12</f>
+        <v>86.203367785826828</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" ref="G32:K32" si="6">SQRT($D10/$L25)/G$12</f>
+        <v>172.40673557165366</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="6"/>
+        <v>258.61010335748051</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="6"/>
+        <v>344.81347114330731</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="6"/>
+        <v>431.01683892913411</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="6"/>
+        <v>517.22020671496102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -985,5 +1336,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/exp2/data/data.xlsx
+++ b/exp2/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>n</t>
   </si>
@@ -77,14 +77,27 @@
   </si>
   <si>
     <t>Mean squared error</t>
+  </si>
+  <si>
+    <t>ERROR:</t>
+  </si>
+  <si>
+    <t>log f</t>
+  </si>
+  <si>
+    <t>log lambda</t>
+  </si>
+  <si>
+    <t>Min Sq. Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -121,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +181,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,7 +207,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
@@ -204,6 +223,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Akzent1" xfId="3" builtinId="30"/>
@@ -246,8 +268,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.1996719160104981E-2"/>
-                  <c:y val="2.1372849227179937E-3"/>
+                  <c:x val="-8.1996719160104994E-2"/>
+                  <c:y val="2.1372849227179959E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -326,8 +348,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10133661417322834"/>
-                  <c:y val="-0.18220472440944882"/>
+                  <c:x val="0.10133661417322837"/>
+                  <c:y val="-0.18220472440944888"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -388,26 +410,26 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="49779456"/>
-        <c:axId val="49773568"/>
+        <c:axId val="107620608"/>
+        <c:axId val="107622400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49779456"/>
+        <c:axId val="107620608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
-          <c:min val="0.30000000000000004"/>
+          <c:min val="0.30000000000000016"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49773568"/>
+        <c:crossAx val="107622400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49773568"/>
+        <c:axId val="107622400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -418,7 +440,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49779456"/>
+        <c:crossAx val="107620608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -431,7 +453,402 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.5988181948979339E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.5988181948979339E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$43:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.17609125905568127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3979400086720376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.47712125471966244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$K$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8048206787211623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0972573096934197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2716093013788319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3951515915045425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4927603890268375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5700757053216043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K_2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4240439114470149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4240439114470149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$43:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.17609125905568127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3979400086720376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.47712125471966244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$K$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9406658724758288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2355284469075487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4124605474299612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.53655844257153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6338722626583326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7114697818743276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Expected K_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$43:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.17609125905568127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3979400086720376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.47712125471966244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$33:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7956820667379145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0967120624018958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2728033214575771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.397742058065877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4946520710739333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5738333171215584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Expected K_2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$43:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.17609125905568127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3979400086720376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.47712125471966244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$34:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9355242331359643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2365542287999456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4126454878556269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5375842244639268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6344942374719831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7136754835196077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="107648512"/>
+        <c:axId val="107650048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="107648512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.35000000000000009"/>
+          <c:min val="-0.5"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107650048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107650048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.8"/>
+          <c:min val="1.7"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107648512"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -464,6 +881,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -757,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B7:P34"/>
+  <dimension ref="B4:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -770,16 +1217,72 @@
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
+    <row r="4" spans="2:16">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" ref="F4:I5" si="0">$M18/F$12</f>
+        <v>0.67843092391141546</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3568618478228309</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" si="0"/>
+        <v>2.0352927717342464</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" si="0"/>
+        <v>2.7137236956456618</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" ref="J4:K5" si="1">$M18/J$12</f>
+        <v>3.3921546195570773</v>
+      </c>
+      <c r="K4" s="16">
+        <f t="shared" si="1"/>
+        <v>4.0705855434684928</v>
+      </c>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="F5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.51843532401302972</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0368706480260594</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5553059720390892</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" si="0"/>
+        <v>2.0737412960521189</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="1"/>
+        <v>2.5921766200651484</v>
+      </c>
+      <c r="K5" s="16">
+        <f t="shared" si="1"/>
+        <v>3.1106119440781783</v>
+      </c>
+    </row>
     <row r="7" spans="2:16" ht="15">
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -793,6 +1296,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16" ht="15">
@@ -859,6 +1365,7 @@
       <c r="K9" s="1">
         <v>371.6</v>
       </c>
+      <c r="M9" s="15"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" ht="15">
@@ -910,23 +1417,23 @@
         <v>2</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ref="G12:K12" si="0">2*$C$8/G8</f>
+        <f t="shared" ref="G12:K12" si="2">2*$C$8/G8</f>
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -996,23 +1503,23 @@
         <v>127.6</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" ref="G18:K18" si="1">G12*G9</f>
+        <f t="shared" ref="G18:K18" si="3">G12*G9</f>
         <v>125.1</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124.6</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124.2</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124.4</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>123.86666666666667</v>
       </c>
       <c r="L18" s="8">
@@ -1040,23 +1547,23 @@
         <v>174.46</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" ref="G19:K19" si="2">G12*G10</f>
+        <f t="shared" ref="G19:K19" si="4">G12*G10</f>
         <v>172</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>172.33333333333331</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>172</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>172.16</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>171.53333333333333</v>
       </c>
       <c r="L19" s="8">
@@ -1142,23 +1649,23 @@
         <v>9.0285079745678601E-4</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" ref="G24:K24" si="3">1/(G18^2/$D$9)</f>
+        <f t="shared" ref="G24:K24" si="5">1/(G18^2/$D$9)</f>
         <v>9.3929652441116656E-4</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.4685014518368902E-4</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.5295883995736945E-4</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.4989712678735731E-4</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.580946907504971E-4</v>
       </c>
       <c r="L24" s="8">
@@ -1186,23 +1693,23 @@
         <v>9.6595210699058996E-4</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" ref="G25:K25" si="4">1/(G19^2/$D$10)</f>
+        <f t="shared" ref="G25:K25" si="6">1/(G19^2/$D$10)</f>
         <v>9.9378042184964841E-4</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.8993972815940821E-4</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9378042184964841E-4</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9193410469728175E-4</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9919505510979892E-4</v>
       </c>
       <c r="L25" s="8">
@@ -1272,23 +1779,23 @@
         <v>62.471519109080369</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" ref="G31:K31" si="5">SQRT($D9/$L24)/G$12</f>
+        <f t="shared" ref="G31:K31" si="7">SQRT($D9/$L24)/G$12</f>
         <v>124.94303821816074</v>
       </c>
       <c r="H31" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>187.41455732724111</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>249.88607643632147</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>312.35759554540181</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>374.82911465448223</v>
       </c>
     </row>
@@ -1304,29 +1811,290 @@
         <v>86.203367785826828</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" ref="G32:K32" si="6">SQRT($D10/$L25)/G$12</f>
+        <f t="shared" ref="G32:K32" si="8">SQRT($D10/$L25)/G$12</f>
         <v>172.40673557165366</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>258.61010335748051</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>344.81347114330731</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>431.01683892913411</v>
       </c>
       <c r="K32" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>517.22020671496102</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="33" spans="2:13">
+      <c r="F33">
+        <f>LOG10(F31)</f>
+        <v>1.7956820667379145</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:K34" si="9">LOG10(G31)</f>
+        <v>2.0967120624018958</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="9"/>
+        <v>2.2728033214575771</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="9"/>
+        <v>2.397742058065877</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="9"/>
+        <v>2.4946520710739333</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="9"/>
+        <v>2.5738333171215584</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
         <v>20</v>
+      </c>
+      <c r="F34">
+        <f>LOG10(F32)</f>
+        <v>1.9355242331359643</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>2.2365542287999456</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="9"/>
+        <v>2.4126454878556269</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="9"/>
+        <v>2.5375842244639268</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="9"/>
+        <v>2.6344942374719831</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="9"/>
+        <v>2.7136754835196077</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="15">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13">
+        <v>2</v>
+      </c>
+      <c r="H37" s="13">
+        <v>3</v>
+      </c>
+      <c r="I37" s="13">
+        <v>4</v>
+      </c>
+      <c r="J37" s="13">
+        <v>5</v>
+      </c>
+      <c r="K37" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="F38">
+        <f>LOG10(F9)</f>
+        <v>1.8048206787211623</v>
+      </c>
+      <c r="G38">
+        <f>LOG10(G9)</f>
+        <v>2.0972573096934197</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="G38:K38" si="10">LOG10(H9)</f>
+        <v>2.2716093013788319</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="10"/>
+        <v>2.3951515915045425</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="10"/>
+        <v>2.4927603890268375</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="10"/>
+        <v>2.5700757053216043</v>
+      </c>
+      <c r="L38">
+        <f>LOG10(K9*1.06166666666)</f>
+        <v>2.5960638872705837</v>
+      </c>
+      <c r="M38">
+        <f>L38-K38</f>
+        <v>2.5988181948979339E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="F39">
+        <f>LOG10(F10)</f>
+        <v>1.9406658724758288</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:K39" si="11">LOG10(G10)</f>
+        <v>2.2355284469075487</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>2.4124605474299612</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>2.53655844257153</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>2.6338722626583326</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="11"/>
+        <v>2.7114697818743276</v>
+      </c>
+      <c r="L39">
+        <f>LOG10(K10*1.033333333333)</f>
+        <v>2.7257102209887978</v>
+      </c>
+      <c r="M39">
+        <f>L39-K39</f>
+        <v>1.4240439114470149E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15">
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>2</v>
+      </c>
+      <c r="H42" s="13">
+        <v>3</v>
+      </c>
+      <c r="I42" s="13">
+        <v>4</v>
+      </c>
+      <c r="J42" s="13">
+        <v>5</v>
+      </c>
+      <c r="K42" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="F43">
+        <f>LOG10(F12)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:K43" si="12">LOG10(G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>-0.17609125905568127</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="12"/>
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="12"/>
+        <v>-0.3979400086720376</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="12"/>
+        <v>-0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="F45">
+        <f>(F9-F31)^2</f>
+        <v>1.7648614775386102</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:K46" si="13">(G9-G31)^2</f>
+        <v>2.4637000958154586E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="13"/>
+        <v>0.2647692430175117</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="13"/>
+        <v>2.2084231745899157</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="13"/>
+        <v>1.8430656648948303</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="13"/>
+        <v>10.427181451791716</v>
+      </c>
+      <c r="L45" s="17">
+        <f>SUM(F45:K45)/6</f>
+        <v>2.755489668798456</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="F46">
+        <f>(F10-F32)^2</f>
+        <v>1.0539737031781184</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="13"/>
+        <v>0.16543382524842581</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="13"/>
+        <v>1.2122749328481303E-2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="13"/>
+        <v>0.66173530099370326</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="13"/>
+        <v>0.38049026449534362</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="13"/>
+        <v>6.865483229126716</v>
+      </c>
+      <c r="L46" s="17">
+        <f>SUM(F46:K46)/6</f>
+        <v>1.5232065120617981</v>
       </c>
     </row>
   </sheetData>

--- a/exp2/data/data.xlsx
+++ b/exp2/data/data.xlsx
@@ -269,7 +269,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-8.1996719160104994E-2"/>
-                  <c:y val="2.1372849227179959E-3"/>
+                  <c:y val="2.1372849227179968E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -348,8 +348,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10133661417322837"/>
-                  <c:y val="-0.18220472440944888"/>
+                  <c:x val="0.10133661417322838"/>
+                  <c:y val="-0.1822047244094489"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -410,26 +410,26 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107620608"/>
-        <c:axId val="107622400"/>
+        <c:axId val="99096832"/>
+        <c:axId val="99102720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107620608"/>
+        <c:axId val="99096832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
-          <c:min val="0.30000000000000016"/>
+          <c:min val="0.30000000000000021"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107622400"/>
+        <c:crossAx val="99102720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107622400"/>
+        <c:axId val="99102720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -440,7 +440,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107620608"/>
+        <c:crossAx val="99096832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -453,7 +453,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -463,6 +463,24 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Resonance Frequencies</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -471,7 +489,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>K_1</c:v>
+            <c:v>1.5 kp</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -570,7 +588,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>K_2</c:v>
+            <c:v>3 kp</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -669,7 +687,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Expected K_1</c:v>
+            <c:v>Expected 1.5 kp</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="15875">
@@ -740,7 +758,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Expected K_2</c:v>
+            <c:v>Expected 3 kp</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="15875">
@@ -807,25 +825,43 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107648512"/>
-        <c:axId val="107650048"/>
+        <c:axId val="99137792"/>
+        <c:axId val="100798464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107648512"/>
+        <c:axId val="99137792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.35000000000000009"/>
+          <c:max val="0.35000000000000014"/>
           <c:min val="-0.5"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Log_10(lambda)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107650048"/>
+        <c:crossAx val="100798464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107650048"/>
+        <c:axId val="100798464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.8"/>
@@ -833,9 +869,27 @@
         </c:scaling>
         <c:axPos val="r"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Log_10(f)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107648512"/>
+        <c:crossAx val="99137792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -848,8 +902,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
+    <c:pageMargins b="1.05277777777778" l="0.78749999999999998" r="0.78749999999999998" t="1.05277777777778" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -888,16 +942,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1206,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
@@ -1922,7 +1976,7 @@
         <v>2.0972573096934197</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="G38:K38" si="10">LOG10(H9)</f>
+        <f t="shared" ref="H38:K38" si="10">LOG10(H9)</f>
         <v>2.2716093013788319</v>
       </c>
       <c r="I38">

--- a/exp2/data/data.xlsx
+++ b/exp2/data/data.xlsx
@@ -269,7 +269,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-8.1996719160104994E-2"/>
-                  <c:y val="2.1372849227179968E-3"/>
+                  <c:y val="2.1372849227179981E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -348,7 +348,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.10133661417322838"/>
+                  <c:x val="0.1013366141732284"/>
                   <c:y val="-0.1822047244094489"/>
                 </c:manualLayout>
               </c:layout>
@@ -410,26 +410,26 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="99096832"/>
-        <c:axId val="99102720"/>
+        <c:axId val="94705920"/>
+        <c:axId val="94711808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99096832"/>
+        <c:axId val="94705920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
-          <c:min val="0.30000000000000021"/>
+          <c:min val="0.30000000000000027"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99102720"/>
+        <c:crossAx val="94711808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99102720"/>
+        <c:axId val="94711808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -440,7 +440,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99096832"/>
+        <c:crossAx val="94705920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -453,7 +453,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -825,14 +825,14 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="99137792"/>
-        <c:axId val="100798464"/>
+        <c:axId val="94759168"/>
+        <c:axId val="99365248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99137792"/>
+        <c:axId val="94759168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.35000000000000014"/>
+          <c:max val="0.3500000000000002"/>
           <c:min val="-0.5"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -847,7 +847,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Log_10(lambda)</a:t>
+                  <a:t>Log_10(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>λ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -856,12 +864,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100798464"/>
+        <c:crossAx val="99365248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100798464"/>
+        <c:axId val="99365248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.8"/>
@@ -889,7 +897,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99137792"/>
+        <c:crossAx val="94759168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -902,7 +910,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.05277777777778" l="0.78749999999999998" r="0.78749999999999998" t="1.05277777777778" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="1.05277777777778" l="0.78749999999999998" r="0.78749999999999998" t="1.05277777777778" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1260,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>

--- a/exp2/data/data.xlsx
+++ b/exp2/data/data.xlsx
@@ -269,7 +269,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-8.1996719160104994E-2"/>
-                  <c:y val="2.1372849227179981E-3"/>
+                  <c:y val="2.1372849227179989E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -348,7 +348,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1013366141732284"/>
+                  <c:x val="0.10133661417322841"/>
                   <c:y val="-0.1822047244094489"/>
                 </c:manualLayout>
               </c:layout>
@@ -410,26 +410,26 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="94705920"/>
-        <c:axId val="94711808"/>
+        <c:axId val="92543232"/>
+        <c:axId val="92549120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94705920"/>
+        <c:axId val="92543232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
-          <c:min val="0.30000000000000027"/>
+          <c:min val="0.30000000000000032"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94711808"/>
+        <c:crossAx val="92549120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94711808"/>
+        <c:axId val="92549120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -440,7 +440,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94705920"/>
+        <c:crossAx val="92543232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -453,7 +453,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -825,14 +825,14 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="94759168"/>
-        <c:axId val="99365248"/>
+        <c:axId val="92596480"/>
+        <c:axId val="94122368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94759168"/>
+        <c:axId val="92596480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.3500000000000002"/>
+          <c:max val="0.35000000000000026"/>
           <c:min val="-0.5"/>
         </c:scaling>
         <c:axPos val="b"/>
@@ -864,12 +864,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99365248"/>
+        <c:crossAx val="94122368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99365248"/>
+        <c:axId val="94122368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.8"/>
@@ -897,7 +897,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94759168"/>
+        <c:crossAx val="92596480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -910,7 +910,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.05277777777778" l="0.78749999999999998" r="0.78749999999999998" t="1.05277777777778" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="1.05277777777778" l="0.78749999999999998" r="0.78749999999999998" t="1.05277777777778" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1893,7 +1893,7 @@
         <v>517.22020671496102</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:15">
       <c r="F33">
         <f>LOG10(F31)</f>
         <v>1.7956820667379145</v>
@@ -1919,7 +1919,7 @@
         <v>2.5738333171215584</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:15">
       <c r="B34" t="s">
         <v>20</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>2.7136754835196077</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="15">
+    <row r="37" spans="2:15" ht="15">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:15">
       <c r="F38">
         <f>LOG10(F9)</f>
         <v>1.8048206787211623</v>
@@ -2007,8 +2007,12 @@
         <f>L38-K38</f>
         <v>2.5988181948979339E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:13">
+      <c r="O38">
+        <f>K9*0.06166666666</f>
+        <v>22.915333330856001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
       <c r="F39">
         <f>LOG10(F10)</f>
         <v>1.9406658724758288</v>
@@ -2041,8 +2045,12 @@
         <f>L39-K39</f>
         <v>1.4240439114470149E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" ht="15">
+      <c r="O39">
+        <f>K10*0.033333333333</f>
+        <v>17.1533333331618</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="15">
       <c r="B42" t="s">
         <v>23</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:15">
       <c r="F43">
         <f>LOG10(F12)</f>
         <v>0.3010299956639812</v>
@@ -2094,12 +2102,12 @@
         <v>-0.47712125471966244</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:15">
       <c r="L44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:15">
       <c r="F45">
         <f>(F9-F31)^2</f>
         <v>1.7648614775386102</v>
@@ -2129,7 +2137,7 @@
         <v>2.755489668798456</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:15">
       <c r="F46">
         <f>(F10-F32)^2</f>
         <v>1.0539737031781184</v>
